--- a/Actuele menu brandstofcafe.xlsx
+++ b/Actuele menu brandstofcafe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Documenten\Repos\project-webdeployment-groep_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415C548-AC47-46CD-ADD6-13C7E841D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F5998-F648-49C7-947C-1FA6B3744366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{98019DCA-B281-4028-AF9C-A7331D3D849D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{98019DCA-B281-4028-AF9C-A7331D3D849D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
-  <si>
-    <t>Warm drinks</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
   <si>
     <t>Cappuccino</t>
   </si>
@@ -68,9 +65,6 @@
     <t>Hot Chocolate Dark</t>
   </si>
   <si>
-    <t>Cold drinks</t>
-  </si>
-  <si>
     <t>Smoothie</t>
   </si>
   <si>
@@ -80,15 +74,9 @@
     <t>Water Sparkling</t>
   </si>
   <si>
-    <t>Alcohol free drinks</t>
-  </si>
-  <si>
     <t>Virgin Gin Tonic</t>
   </si>
   <si>
-    <t>Pastry's and dessert</t>
-  </si>
-  <si>
     <t>Snacks</t>
   </si>
   <si>
@@ -98,12 +86,6 @@
     <t>Wentelteefjes</t>
   </si>
   <si>
-    <t>Catering drinks</t>
-  </si>
-  <si>
-    <t>Catering food</t>
-  </si>
-  <si>
     <t>Re-usables / disposables</t>
   </si>
   <si>
@@ -534,6 +516,27 @@
   </si>
   <si>
     <t>ParentID</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Hot Drinks</t>
+  </si>
+  <si>
+    <t>Cold Drinks</t>
+  </si>
+  <si>
+    <t>Non-Alcoholic Drinks</t>
+  </si>
+  <si>
+    <t>(NULL)</t>
+  </si>
+  <si>
+    <t>Pastry's &amp; Desserts</t>
   </si>
 </sst>
 </file>
@@ -907,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4535FE9C-C56C-4123-9AB4-19657575B388}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,48 +931,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>1.22</v>
@@ -978,18 +984,21 @@
         <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>1.88</v>
@@ -998,18 +1007,21 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1.5</v>
@@ -1018,18 +1030,21 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>2.16</v>
@@ -1038,18 +1053,21 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>1.22</v>
@@ -1058,18 +1076,21 @@
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>1.88</v>
@@ -1078,18 +1099,21 @@
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>1.5</v>
@@ -1098,18 +1122,21 @@
         <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>2.16</v>
@@ -1118,18 +1145,21 @@
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>1.88</v>
@@ -1138,18 +1168,21 @@
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>1.17</v>
@@ -1158,18 +1191,21 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>1.3</v>
@@ -1178,18 +1214,21 @@
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>2.1</v>
@@ -1198,18 +1237,21 @@
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0.39</v>
@@ -1218,18 +1260,21 @@
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>2.6</v>
@@ -1238,18 +1283,21 @@
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>2.59</v>
@@ -1258,18 +1306,21 @@
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>3.25</v>
@@ -1278,18 +1329,21 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1298,18 +1352,21 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>2.5</v>
@@ -1318,18 +1375,21 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>2.75</v>
@@ -1338,18 +1398,21 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>2.1</v>
@@ -1358,18 +1421,21 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>2.1</v>
@@ -1378,18 +1444,21 @@
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>2.75</v>
@@ -1398,18 +1467,21 @@
         <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>3.2</v>
@@ -1418,18 +1490,21 @@
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>2.6</v>
@@ -1438,18 +1513,21 @@
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>2.6</v>
@@ -1458,18 +1536,21 @@
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>2.6</v>
@@ -1478,18 +1559,21 @@
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>2.6</v>
@@ -1498,18 +1582,21 @@
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E29">
         <v>2.6</v>
@@ -1518,18 +1605,21 @@
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>5.5</v>
@@ -1538,18 +1628,21 @@
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>4.4000000000000004</v>
@@ -1558,18 +1651,21 @@
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>3.2</v>
@@ -1578,18 +1674,21 @@
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E33">
         <v>2.25</v>
@@ -1598,18 +1697,21 @@
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1618,18 +1720,21 @@
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E35">
         <v>1.1000000000000001</v>
@@ -1638,18 +1743,21 @@
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>4.5</v>
@@ -1658,18 +1766,21 @@
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>6.6</v>
@@ -1678,18 +1789,21 @@
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>6.5</v>
@@ -1698,18 +1812,21 @@
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>6.5</v>
@@ -1718,18 +1835,21 @@
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>7.2</v>
@@ -1738,18 +1858,21 @@
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <v>6.2</v>
@@ -1758,18 +1881,21 @@
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>5.0999999999999996</v>
@@ -1778,18 +1904,21 @@
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>5.85</v>
@@ -1798,18 +1927,21 @@
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E44">
         <v>6</v>
@@ -1818,18 +1950,21 @@
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E45">
         <v>5.5</v>
@@ -1838,18 +1973,21 @@
         <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E46">
         <v>14.95</v>
@@ -1858,18 +1996,21 @@
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1878,18 +2019,21 @@
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1898,18 +2042,21 @@
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E49">
         <v>4.5</v>
@@ -1918,63 +2065,117 @@
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
         <v>164</v>
       </c>
-      <c r="C53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>21</v>
+      <c r="C61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9</v>
+      </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>166</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Actuele menu brandstofcafe.xlsx
+++ b/Actuele menu brandstofcafe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Documenten\Repos\project-webdeployment-groep_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F5998-F648-49C7-947C-1FA6B3744366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB400B6-E564-4949-BE9D-02D2F7A674F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{98019DCA-B281-4028-AF9C-A7331D3D849D}"/>
   </bookViews>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4535FE9C-C56C-4123-9AB4-19657575B388}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:K49"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
